--- a/data/trans_orig/P21B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21B-Habitat-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6443</v>
+        <v>6012</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01638435581053134</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05712749151578451</v>
+        <v>0.05330367703576912</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6225</v>
+        <v>6388</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007424736924733884</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02501404851306059</v>
+        <v>0.02566715839658896</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4285</v>
+        <v>4295</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.006255122309247818</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.031485498356166</v>
+        <v>0.03156160823135203</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4696</v>
+        <v>4320</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.00342055022626442</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01886787978720829</v>
+        <v>0.01735711799413711</v>
       </c>
     </row>
     <row r="6">
@@ -917,19 +917,19 @@
         <v>35532</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26365</v>
+        <v>25418</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46082</v>
+        <v>45360</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.315055644718771</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2337749160378225</v>
+        <v>0.2253789176114563</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4086004860386545</v>
+        <v>0.4021996604966024</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -938,19 +938,19 @@
         <v>41034</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31180</v>
+        <v>31049</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51421</v>
+        <v>52761</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3015102695391712</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2291045036552539</v>
+        <v>0.2281368677771809</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3778302374615736</v>
+        <v>0.387674768588558</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>77</v>
@@ -959,19 +959,19 @@
         <v>76567</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62280</v>
+        <v>61041</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>90418</v>
+        <v>91753</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3076484936120826</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2502442194211342</v>
+        <v>0.2452654329184741</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3633038503553986</v>
+        <v>0.3686681431449269</v>
       </c>
     </row>
     <row r="8">
@@ -988,19 +988,19 @@
         <v>75401</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>64756</v>
+        <v>65395</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>84840</v>
+        <v>85768</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6685599994706977</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5741757756169948</v>
+        <v>0.5798414091335065</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7522501087539207</v>
+        <v>0.7604823536262156</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>95</v>
@@ -1009,19 +1009,19 @@
         <v>94210</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>83453</v>
+        <v>82551</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>104061</v>
+        <v>104008</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.692234608151581</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6131940512102924</v>
+        <v>0.6065620685957608</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7646122891274775</v>
+        <v>0.7642235513499495</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>170</v>
@@ -1030,19 +1030,19 @@
         <v>169611</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>155739</v>
+        <v>153840</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>184624</v>
+        <v>184521</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6815062192369191</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6257669789975141</v>
+        <v>0.6181364064468252</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7418283349070464</v>
+        <v>0.7414135461117345</v>
       </c>
     </row>
     <row r="9">
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5437</v>
+        <v>5310</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005769932582253371</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02929322346535528</v>
+        <v>0.02860550812278969</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1202,19 +1202,19 @@
         <v>3332</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>991</v>
+        <v>1000</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9597</v>
+        <v>9202</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01173518606638028</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003488521916844076</v>
+        <v>0.003522985127914891</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03379863074017868</v>
+        <v>0.03240895315547723</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -1223,19 +1223,19 @@
         <v>4403</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1140</v>
+        <v>1083</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9966</v>
+        <v>10503</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.009377072179531499</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002428634392315108</v>
+        <v>0.00230592091347121</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02122467984854228</v>
+        <v>0.02236811668175017</v>
       </c>
     </row>
     <row r="12">
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6528</v>
+        <v>6467</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01150634809609354</v>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03517063190371487</v>
+        <v>0.03484323158094239</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1273,19 +1273,19 @@
         <v>3562</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9779</v>
+        <v>10046</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01254536513383966</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.003340295527589023</v>
+        <v>0.003331063476820239</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03444283565660333</v>
+        <v>0.0353802222140774</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1294,19 +1294,19 @@
         <v>5698</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2027</v>
+        <v>2008</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13570</v>
+        <v>12611</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01213463313193879</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004317080465919521</v>
+        <v>0.004276635754003723</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02890006034815901</v>
+        <v>0.02685788095165511</v>
       </c>
     </row>
     <row r="13">
@@ -1323,19 +1323,19 @@
         <v>55116</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42599</v>
+        <v>42937</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>68052</v>
+        <v>67900</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2969382531549031</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2295001212434465</v>
+        <v>0.231320272059141</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3666287098370858</v>
+        <v>0.3658100944535006</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>101</v>
@@ -1344,19 +1344,19 @@
         <v>105933</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>90158</v>
+        <v>88826</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>122219</v>
+        <v>122727</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3730944013274361</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3175346194278685</v>
+        <v>0.3128441678120162</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4304512640398084</v>
+        <v>0.4322416190974767</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>152</v>
@@ -1365,19 +1365,19 @@
         <v>161050</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>140030</v>
+        <v>139751</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>182169</v>
+        <v>180972</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3429892480338794</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2982229237001323</v>
+        <v>0.2976288414774343</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3879661253400203</v>
+        <v>0.3854172191485796</v>
       </c>
     </row>
     <row r="14">
@@ -1394,19 +1394,19 @@
         <v>127293</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>113834</v>
+        <v>113817</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>139881</v>
+        <v>139624</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6857854661667501</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6132744334368173</v>
+        <v>0.6131868328869696</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7536046608217076</v>
+        <v>0.752217057344704</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>161</v>
@@ -1415,19 +1415,19 @@
         <v>171105</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>155622</v>
+        <v>154485</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>187457</v>
+        <v>187517</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6026250474723439</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5480958063707073</v>
+        <v>0.544089850814917</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6602167776394079</v>
+        <v>0.6604299389990301</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>279</v>
@@ -1436,19 +1436,19 @@
         <v>298397</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>277019</v>
+        <v>276382</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>320462</v>
+        <v>320336</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6354990466546503</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5899687993678641</v>
+        <v>0.5886126028011557</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6824896078602458</v>
+        <v>0.6822218465064332</v>
       </c>
     </row>
     <row r="15">
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5391</v>
+        <v>4437</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004190677926686293</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03053915847516956</v>
+        <v>0.02513216930382053</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3724</v>
+        <v>3701</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00246447426275573</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01240447993647797</v>
+        <v>0.01232976617220106</v>
       </c>
     </row>
     <row r="17">
@@ -1603,19 +1603,19 @@
         <v>3751</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>938</v>
+        <v>975</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10123</v>
+        <v>11494</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03033122197607907</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00758854950277481</v>
+        <v>0.007881863298459007</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08186835121945847</v>
+        <v>0.09295443063721789</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8053</v>
+        <v>8318</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01413659128871888</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04561445543156638</v>
+        <v>0.0471170973693053</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1645,19 +1645,19 @@
         <v>6246</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1985</v>
+        <v>1997</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13734</v>
+        <v>13581</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02080740477464778</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006612953841513135</v>
+        <v>0.006651351447773076</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04574972168149495</v>
+        <v>0.04523949648375029</v>
       </c>
     </row>
     <row r="18">
@@ -1674,19 +1674,19 @@
         <v>7263</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2697</v>
+        <v>2535</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15128</v>
+        <v>14477</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05873642404680249</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02180741292058388</v>
+        <v>0.02050277569513289</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1223384721931544</v>
+        <v>0.1170764246630958</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -1695,19 +1695,19 @@
         <v>5737</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2564</v>
+        <v>1993</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11831</v>
+        <v>11983</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03249825223049131</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01452377667265155</v>
+        <v>0.01129014521665372</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06701728810583173</v>
+        <v>0.06787710035574414</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>12</v>
@@ -1716,19 +1716,19 @@
         <v>13000</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6912</v>
+        <v>7088</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>21864</v>
+        <v>22391</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04330615231647339</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02302492967707865</v>
+        <v>0.02361142236479385</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07283352729578696</v>
+        <v>0.07458988211649928</v>
       </c>
     </row>
     <row r="19">
@@ -1745,19 +1745,19 @@
         <v>18740</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11740</v>
+        <v>12598</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27064</v>
+        <v>27053</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1515498207329943</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09493846064025162</v>
+        <v>0.1018787067694281</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2188665684539476</v>
+        <v>0.2187780563626599</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -1766,19 +1766,19 @@
         <v>41295</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31756</v>
+        <v>31630</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>53764</v>
+        <v>52736</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2339166069609142</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.179878419509494</v>
+        <v>0.1791650629218978</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3045473205007042</v>
+        <v>0.2987200826598127</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>63</v>
@@ -1787,19 +1787,19 @@
         <v>60035</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>47121</v>
+        <v>47743</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>74561</v>
+        <v>72995</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1999884810919695</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.156970481178566</v>
+        <v>0.1590402957881453</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2483772444163651</v>
+        <v>0.2431587444328141</v>
       </c>
     </row>
     <row r="20">
@@ -1816,19 +1816,19 @@
         <v>93901</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>84191</v>
+        <v>83720</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>102818</v>
+        <v>102826</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7593825332441242</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.680862984658328</v>
+        <v>0.6770503933503458</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8314959445639691</v>
+        <v>0.83156249158585</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>128</v>
@@ -1837,19 +1837,19 @@
         <v>126271</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>113265</v>
+        <v>114185</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>136562</v>
+        <v>137581</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7152578715931893</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6415887757394774</v>
+        <v>0.6467959981576411</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7735512807288235</v>
+        <v>0.7793213424827765</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>216</v>
@@ -1858,19 +1858,19 @@
         <v>220172</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>203306</v>
+        <v>205928</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>233911</v>
+        <v>235697</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7334334875541536</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6772505652997713</v>
+        <v>0.6859849500169292</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7792004434499921</v>
+        <v>0.7851523705462854</v>
       </c>
     </row>
     <row r="21">
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4611</v>
+        <v>4279</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006146909528151773</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03380321924360022</v>
+        <v>0.03137040121832559</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6607</v>
+        <v>7179</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009449664555545243</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.029049421052421</v>
+        <v>0.03156190825648235</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -2004,19 +2004,19 @@
         <v>2988</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8115</v>
+        <v>8128</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008211533160308914</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002316766832541106</v>
+        <v>0.002309182296090182</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0223046730869868</v>
+        <v>0.02233969140841594</v>
       </c>
     </row>
     <row r="23">
@@ -2033,19 +2033,19 @@
         <v>5370</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10878</v>
+        <v>10873</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03937463484222394</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01325713386634566</v>
+        <v>0.01329262157246476</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07975260095496195</v>
+        <v>0.07971581593675231</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -2054,19 +2054,19 @@
         <v>6954</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2902</v>
+        <v>2892</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13738</v>
+        <v>14538</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03057483403827334</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01275975985293618</v>
+        <v>0.01271523661897969</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06040162928159885</v>
+        <v>0.06392061092052818</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>13</v>
@@ -2075,19 +2075,19 @@
         <v>12325</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6831</v>
+        <v>6909</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>20556</v>
+        <v>21480</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.033873688950863</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01877511177505041</v>
+        <v>0.01898971902922895</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0564982238766116</v>
+        <v>0.05903607220218152</v>
       </c>
     </row>
     <row r="24">
@@ -2104,19 +2104,19 @@
         <v>3191</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9622</v>
+        <v>9692</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02339594265304897</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.006254339562151892</v>
+        <v>0.006273102654144261</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07054643699242263</v>
+        <v>0.07105998577415951</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4562</v>
+        <v>3653</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.003941760667029126</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02005774381017497</v>
+        <v>0.01606086597466092</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -2146,19 +2146,19 @@
         <v>4088</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1421</v>
+        <v>909</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10221</v>
+        <v>10209</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01123471254682431</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.003905927952043608</v>
+        <v>0.002498219840732533</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02809313553724625</v>
+        <v>0.02805840674781082</v>
       </c>
     </row>
     <row r="25">
@@ -2175,19 +2175,19 @@
         <v>28057</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19610</v>
+        <v>18753</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>38122</v>
+        <v>37020</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2057026651437809</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1437745091287816</v>
+        <v>0.1374883353363275</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2794996928621132</v>
+        <v>0.2714176626123578</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>40</v>
@@ -2196,19 +2196,19 @@
         <v>41695</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30323</v>
+        <v>30609</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>54698</v>
+        <v>54512</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1833192743248212</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1333227722273737</v>
+        <v>0.1345804985617161</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2404904609786971</v>
+        <v>0.2396763867933732</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>69</v>
@@ -2217,19 +2217,19 @@
         <v>69751</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>55360</v>
+        <v>56571</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>85491</v>
+        <v>85881</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1917103232142904</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1521568845778711</v>
+        <v>0.1554856396949273</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2349706693064844</v>
+        <v>0.2360427766256157</v>
       </c>
     </row>
     <row r="26">
@@ -2246,19 +2246,19 @@
         <v>98937</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>88145</v>
+        <v>89235</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>107792</v>
+        <v>108964</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7253798478327944</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6462529935887256</v>
+        <v>0.6542440440032519</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7902968965493053</v>
+        <v>0.7988919140540616</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>167</v>
@@ -2267,19 +2267,19 @@
         <v>175748</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>162564</v>
+        <v>162238</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>187401</v>
+        <v>187987</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7727144664143311</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7147492156796779</v>
+        <v>0.7133159351880145</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8239526109495892</v>
+        <v>0.8265282103286817</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>274</v>
@@ -2288,19 +2288,19 @@
         <v>274686</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>258115</v>
+        <v>257569</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>290285</v>
+        <v>290415</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7549697421277134</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7094234912214722</v>
+        <v>0.7079236720294705</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7978438158304609</v>
+        <v>0.7982007271092466</v>
       </c>
     </row>
     <row r="27">
@@ -2392,19 +2392,19 @@
         <v>2686</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7190</v>
+        <v>7290</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004810227044308192</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001468336881503951</v>
+        <v>0.001489892474010832</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01287575282132472</v>
+        <v>0.01305410193323942</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2413,19 +2413,19 @@
         <v>2889</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8146</v>
+        <v>7463</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.003506114334318771</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0009023749154532572</v>
+        <v>0.0008915016460693502</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.009885805107661407</v>
+        <v>0.009056997756910564</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -2434,19 +2434,19 @@
         <v>5575</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2121</v>
+        <v>2368</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>11732</v>
+        <v>10850</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.004032913779798131</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001533879205615712</v>
+        <v>0.001713106147197085</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.008486130181520732</v>
+        <v>0.007848212159243128</v>
       </c>
     </row>
     <row r="29">
@@ -2463,19 +2463,19 @@
         <v>10192</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4781</v>
+        <v>5411</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18570</v>
+        <v>19016</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01825074006506551</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.008561901562776192</v>
+        <v>0.009690201618112706</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03325283153042422</v>
+        <v>0.03405096583262971</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -2484,19 +2484,19 @@
         <v>13633</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7282</v>
+        <v>7508</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23167</v>
+        <v>22737</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01654466953488669</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.008837800102296412</v>
+        <v>0.009111796532797875</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02811473567240877</v>
+        <v>0.02759268178597524</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>23</v>
@@ -2505,19 +2505,19 @@
         <v>23825</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>14666</v>
+        <v>15613</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>34790</v>
+        <v>35641</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01723384080234115</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0106088805562506</v>
+        <v>0.01129367088285895</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02516548821322665</v>
+        <v>0.02578083302090571</v>
       </c>
     </row>
     <row r="30">
@@ -2534,19 +2534,19 @@
         <v>12590</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7123</v>
+        <v>6550</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>22466</v>
+        <v>21698</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02254440817745234</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01275461620961515</v>
+        <v>0.01172941426309765</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04022904566728256</v>
+        <v>0.03885412390173782</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -2555,19 +2555,19 @@
         <v>10196</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4981</v>
+        <v>4923</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17691</v>
+        <v>17955</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01237335610392392</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.006045249235230398</v>
+        <v>0.005974434996229924</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02146908670566572</v>
+        <v>0.02178995190228773</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>21</v>
@@ -2576,19 +2576,19 @@
         <v>22786</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>14709</v>
+        <v>13978</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>34772</v>
+        <v>34470</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01648197689354872</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01063941879571723</v>
+        <v>0.0101108988634877</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02515250322841318</v>
+        <v>0.02493364005403606</v>
       </c>
     </row>
     <row r="31">
@@ -2605,19 +2605,19 @@
         <v>137445</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>118751</v>
+        <v>117309</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>161035</v>
+        <v>158752</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2461211928504486</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2126452764382909</v>
+        <v>0.2100639743971352</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2883633313229093</v>
+        <v>0.2842754600606421</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>226</v>
@@ -2626,19 +2626,19 @@
         <v>229958</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>202211</v>
+        <v>205249</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>255781</v>
+        <v>257736</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2790718062582075</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2453995631148755</v>
+        <v>0.2490861319279664</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3104106898714341</v>
+        <v>0.3127824792580646</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>361</v>
@@ -2647,19 +2647,19 @@
         <v>367403</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>335069</v>
+        <v>334383</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>403305</v>
+        <v>403673</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2657613272340801</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2423728940278022</v>
+        <v>0.2418766856084048</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2917311670086036</v>
+        <v>0.2919973769631125</v>
       </c>
     </row>
     <row r="32">
@@ -2676,19 +2676,19 @@
         <v>395532</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>369564</v>
+        <v>373356</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>414502</v>
+        <v>418610</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7082734318627253</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6617716334189434</v>
+        <v>0.668561970340009</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7422421148617749</v>
+        <v>0.7495987954508234</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>551</v>
@@ -2697,19 +2697,19 @@
         <v>567334</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>539552</v>
+        <v>541267</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>595384</v>
+        <v>595425</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6885040537686632</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6547892511287289</v>
+        <v>0.6568698685621358</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.722545431482288</v>
+        <v>0.7225947238184078</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>939</v>
@@ -2718,19 +2718,19 @@
         <v>962865</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>925878</v>
+        <v>924955</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>995718</v>
+        <v>995427</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6964899412902319</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6697348757243996</v>
+        <v>0.6690673679091247</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7202542320578068</v>
+        <v>0.7200435670893487</v>
       </c>
     </row>
     <row r="33">
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4519</v>
+        <v>4743</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006477929937861567</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03195189238400951</v>
+        <v>0.03353941435188957</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4331</v>
+        <v>4595</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002736271364548104</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01293684661596841</v>
+        <v>0.01372362466978109</v>
       </c>
     </row>
     <row r="5">
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4791</v>
+        <v>4612</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.005373636732404359</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02477542242115907</v>
+        <v>0.02384624580705346</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5181</v>
+        <v>5234</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003103817753902757</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01547510074591552</v>
+        <v>0.01563257139653644</v>
       </c>
     </row>
     <row r="6">
@@ -3188,19 +3188,19 @@
         <v>4082</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12177</v>
+        <v>10977</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02886057612198923</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007106897883107526</v>
+        <v>0.007120545074369838</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08610050670379725</v>
+        <v>0.07762041361575266</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6576</v>
+        <v>5834</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.009751054615631805</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03400538442406952</v>
+        <v>0.03016872404483588</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -3230,19 +3230,19 @@
         <v>5967</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2050</v>
+        <v>2025</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14241</v>
+        <v>15943</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01782289808872177</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006122146450254685</v>
+        <v>0.00604845609351111</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04253449133659118</v>
+        <v>0.04761656802899362</v>
       </c>
     </row>
     <row r="7">
@@ -3259,19 +3259,19 @@
         <v>45590</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35719</v>
+        <v>35430</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58017</v>
+        <v>56665</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3223617178537809</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2525659353952567</v>
+        <v>0.250524628334808</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4102319923393222</v>
+        <v>0.4006722472159969</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -3280,19 +3280,19 @@
         <v>56407</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44250</v>
+        <v>42539</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70488</v>
+        <v>68895</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2916803835892742</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2288182932368851</v>
+        <v>0.2199695265813811</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3644914714154424</v>
+        <v>0.3562529040885685</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>100</v>
@@ -3301,19 +3301,19 @@
         <v>101997</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>85451</v>
+        <v>85909</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>120248</v>
+        <v>120774</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3046401496224666</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2552222407466602</v>
+        <v>0.2565896958609968</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3591528069836732</v>
+        <v>0.3607245512592835</v>
       </c>
     </row>
     <row r="8">
@@ -3330,19 +3330,19 @@
         <v>90837</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>78865</v>
+        <v>79708</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>101064</v>
+        <v>101368</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6422997760863682</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5576523822322506</v>
+        <v>0.5636136171830106</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7146155035839794</v>
+        <v>0.716769782110004</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>124</v>
@@ -3351,19 +3351,19 @@
         <v>134055</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>120093</v>
+        <v>120988</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>145640</v>
+        <v>148210</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6931949250626896</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6209993542133059</v>
+        <v>0.6256265943931421</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7531038565301053</v>
+        <v>0.7663911748300076</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>209</v>
@@ -3372,19 +3372,19 @@
         <v>224891</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>206158</v>
+        <v>205463</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>242856</v>
+        <v>241060</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6716968631703608</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6157454563228691</v>
+        <v>0.6136714639620423</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7253546099179345</v>
+        <v>0.7199899416750621</v>
       </c>
     </row>
     <row r="9">
@@ -3570,19 +3570,19 @@
         <v>4377</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1125</v>
+        <v>1163</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10985</v>
+        <v>10975</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01911956675859686</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.004913144621681999</v>
+        <v>0.005079530120404766</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04798889256645099</v>
+        <v>0.04794372330216835</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5927</v>
+        <v>5081</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.003556050760868686</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01980106561051212</v>
+        <v>0.01697499543851591</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -3612,19 +3612,19 @@
         <v>5441</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2091</v>
+        <v>2035</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12523</v>
+        <v>12258</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01030056973389055</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.003959303013352605</v>
+        <v>0.003852747298848098</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02370703567831497</v>
+        <v>0.02320535742466501</v>
       </c>
     </row>
     <row r="13">
@@ -3641,19 +3641,19 @@
         <v>109556</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>92402</v>
+        <v>92276</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>123350</v>
+        <v>125300</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.478602144859215</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.403662139425211</v>
+        <v>0.4031133886649785</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5388622269560146</v>
+        <v>0.5473779229961064</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>113</v>
@@ -3662,19 +3662,19 @@
         <v>126303</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>108248</v>
+        <v>107971</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>143463</v>
+        <v>144135</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.421971145623838</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3616513862840252</v>
+        <v>0.3607268131872053</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4793035911356314</v>
+        <v>0.4815470380462383</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>212</v>
@@ -3683,19 +3683,19 @@
         <v>235859</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>209504</v>
+        <v>209722</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>259265</v>
+        <v>260886</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4465124413606073</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3966192574863681</v>
+        <v>0.3970316571049434</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4908231095168051</v>
+        <v>0.4938918810730301</v>
       </c>
     </row>
     <row r="14">
@@ -3712,19 +3712,19 @@
         <v>114976</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>101026</v>
+        <v>99977</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>132526</v>
+        <v>132322</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5022782883821881</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4413377364844788</v>
+        <v>0.4367531921430039</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5789474853944987</v>
+        <v>0.5780545317357391</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>155</v>
@@ -3733,19 +3733,19 @@
         <v>171949</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>154971</v>
+        <v>153533</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>189859</v>
+        <v>190047</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5744728036152933</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5177509071226032</v>
+        <v>0.5129456946824208</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6343091959972255</v>
+        <v>0.6349376192775132</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>263</v>
@@ -3754,19 +3754,19 @@
         <v>286925</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>264346</v>
+        <v>261641</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>313202</v>
+        <v>313445</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5431869889055022</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5004420886205996</v>
+        <v>0.4953208890730941</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5929322351790406</v>
+        <v>0.5933925511874739</v>
       </c>
     </row>
     <row r="15">
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7133</v>
+        <v>6029</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005970165945949484</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03923053995734011</v>
+        <v>0.03316105714707571</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6502</v>
+        <v>5763</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002467966999353458</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01478244251733891</v>
+        <v>0.01310150001353847</v>
       </c>
     </row>
     <row r="17">
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5374</v>
+        <v>5838</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.005409790316342791</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02955843985890715</v>
+        <v>0.03211025265325268</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -3942,19 +3942,19 @@
         <v>7140</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2965</v>
+        <v>2224</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18121</v>
+        <v>16478</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02767304900336383</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01149077923935589</v>
+        <v>0.008621236193169448</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07023262788336017</v>
+        <v>0.06386331497942466</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -3963,19 +3963,19 @@
         <v>8124</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3017</v>
+        <v>3133</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17671</v>
+        <v>16964</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01846978928913176</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006859226524264924</v>
+        <v>0.007122719937129838</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04017686791278181</v>
+        <v>0.0385690091808296</v>
       </c>
     </row>
     <row r="18">
@@ -3995,16 +3995,16 @@
         <v>961</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9526</v>
+        <v>9632</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02112680817436049</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.005284469009944528</v>
+        <v>0.005285003504005997</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05239428042876396</v>
+        <v>0.05297419149691487</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -4013,19 +4013,19 @@
         <v>3057</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>994</v>
+        <v>977</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8715</v>
+        <v>8143</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01184709599308797</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003852557487351257</v>
+        <v>0.003785856923942818</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03377886550024463</v>
+        <v>0.03156071854498081</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7</v>
@@ -4034,19 +4034,19 @@
         <v>6898</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2906</v>
+        <v>2959</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>12783</v>
+        <v>13862</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01568317419162062</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.006607922297815386</v>
+        <v>0.00672793482180402</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02906237751334377</v>
+        <v>0.03151738118221635</v>
       </c>
     </row>
     <row r="19">
@@ -4063,19 +4063,19 @@
         <v>57250</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45332</v>
+        <v>44622</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71288</v>
+        <v>70861</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3148683630537594</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2493196387953093</v>
+        <v>0.2454165663962409</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.392076949435885</v>
+        <v>0.389726934813279</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>68</v>
@@ -4084,19 +4084,19 @@
         <v>71609</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57487</v>
+        <v>57636</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>86644</v>
+        <v>87659</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2775377505039119</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2228043257334632</v>
+        <v>0.2233809548425187</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3358092384474373</v>
+        <v>0.3397446410217385</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>119</v>
@@ -4105,19 +4105,19 @@
         <v>128859</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>110590</v>
+        <v>109438</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>150757</v>
+        <v>149556</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2929696029302554</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2514337597017502</v>
+        <v>0.248816413609648</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3427573185178186</v>
+        <v>0.3400268787787252</v>
       </c>
     </row>
     <row r="20">
@@ -4134,19 +4134,19 @@
         <v>118661</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>105458</v>
+        <v>103552</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>131260</v>
+        <v>131267</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6526248725095878</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5800101079302915</v>
+        <v>0.5695296570028231</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7219213706251729</v>
+        <v>0.7219587410136901</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>163</v>
@@ -4155,19 +4155,19 @@
         <v>176209</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>160586</v>
+        <v>158150</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>191688</v>
+        <v>190957</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6829421044996363</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6223915119411448</v>
+        <v>0.6129474124028508</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7429353791331549</v>
+        <v>0.7401022348204684</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>273</v>
@@ -4176,19 +4176,19 @@
         <v>294870</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>273727</v>
+        <v>274465</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>314042</v>
+        <v>314385</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6704094665896388</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6223398319974053</v>
+        <v>0.6240176426091687</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7139980649909475</v>
+        <v>0.7147774577407106</v>
       </c>
     </row>
     <row r="21">
@@ -4327,19 +4327,19 @@
         <v>2848</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7741</v>
+        <v>8436</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01880536462119314</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005951595761594907</v>
+        <v>0.005876523323620077</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05111327248797405</v>
+        <v>0.05570038732185031</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -4348,19 +4348,19 @@
         <v>7589</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3764</v>
+        <v>3707</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13369</v>
+        <v>14296</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03348482644755938</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01661005199977287</v>
+        <v>0.01635611171423378</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05899182574303612</v>
+        <v>0.0630817769320511</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>11</v>
@@ -4369,19 +4369,19 @@
         <v>10437</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5603</v>
+        <v>5451</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>18041</v>
+        <v>18783</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02760453838604997</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01482033893703525</v>
+        <v>0.01441867178330566</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0477191815490909</v>
+        <v>0.04968104185458327</v>
       </c>
     </row>
     <row r="24">
@@ -4411,19 +4411,19 @@
         <v>8831</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3886</v>
+        <v>4197</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17212</v>
+        <v>17137</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03896687355308379</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01714832664261233</v>
+        <v>0.01852056088530093</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07594767393340908</v>
+        <v>0.07561760556593415</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>8</v>
@@ -4432,19 +4432,19 @@
         <v>8831</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4104</v>
+        <v>4769</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>17158</v>
+        <v>17553</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02335755189954836</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01085444022044902</v>
+        <v>0.01261323441843155</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.045382446415234</v>
+        <v>0.04642653906711846</v>
       </c>
     </row>
     <row r="25">
@@ -4461,19 +4461,19 @@
         <v>34151</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>25705</v>
+        <v>23781</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45940</v>
+        <v>45500</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.225492657304577</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1697274103339332</v>
+        <v>0.1570257580426432</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3033378857049026</v>
+        <v>0.3004322066107513</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>48</v>
@@ -4482,19 +4482,19 @@
         <v>49635</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>37979</v>
+        <v>38265</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>62829</v>
+        <v>63075</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2190158716282874</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.167585294782687</v>
+        <v>0.1688452840956519</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2772372793589597</v>
+        <v>0.278322539566116</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>80</v>
@@ -4503,19 +4503,19 @@
         <v>83785</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>68022</v>
+        <v>67793</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>102337</v>
+        <v>100796</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.221610337688401</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.179916685511861</v>
+        <v>0.1793116946001325</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.270678269983468</v>
+        <v>0.2666035716662252</v>
       </c>
     </row>
     <row r="26">
@@ -4532,19 +4532,19 @@
         <v>114450</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>103351</v>
+        <v>103105</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>123997</v>
+        <v>125246</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7557019780742299</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6824162304816599</v>
+        <v>0.6807922053328169</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8187366612633771</v>
+        <v>0.8269857207004571</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>153</v>
@@ -4553,19 +4553,19 @@
         <v>160572</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>147076</v>
+        <v>145968</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>173479</v>
+        <v>174205</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7085324283710694</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.648979520202168</v>
+        <v>0.6440931303742385</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7654857680926407</v>
+        <v>0.7686906290824201</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>265</v>
@@ -4574,19 +4574,19 @@
         <v>275022</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>255682</v>
+        <v>258262</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>291947</v>
+        <v>292750</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7274275720260006</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6762729171886239</v>
+        <v>0.6830961505699811</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7721944131177165</v>
+        <v>0.774317674907518</v>
       </c>
     </row>
     <row r="27">
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6170</v>
+        <v>6859</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002844837587779353</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.008768980674684212</v>
+        <v>0.009748453228568228</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7643</v>
+        <v>7121</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.001190777853282419</v>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.004547068655475032</v>
+        <v>0.004236504719340651</v>
       </c>
     </row>
     <row r="29">
@@ -4741,19 +4741,19 @@
         <v>3832</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8846</v>
+        <v>9037</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.005445785365816486</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.001413192483732638</v>
+        <v>0.001405994054069239</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01257216660979993</v>
+        <v>0.01284366184470986</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>14</v>
@@ -4762,19 +4762,19 @@
         <v>15768</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8776</v>
+        <v>8595</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>25072</v>
+        <v>26169</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01613330210413255</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.00897967192835487</v>
+        <v>0.008794632947231384</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02565333089805257</v>
+        <v>0.02677588287320817</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>18</v>
@@ -4783,19 +4783,19 @@
         <v>19599</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12102</v>
+        <v>11942</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>32522</v>
+        <v>32228</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0116597749357482</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.007199655968378723</v>
+        <v>0.007104167639124759</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01934727377018557</v>
+        <v>0.01917253989077149</v>
       </c>
     </row>
     <row r="30">
@@ -4812,19 +4812,19 @@
         <v>12299</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6127</v>
+        <v>5940</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>21585</v>
+        <v>21702</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01748075570596011</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.00870754172319568</v>
+        <v>0.008441908871885383</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03067846670361295</v>
+        <v>0.03084392022925511</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>14</v>
@@ -4833,19 +4833,19 @@
         <v>14838</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>8708</v>
+        <v>8501</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>25781</v>
+        <v>24971</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01518169643434616</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0089097895960166</v>
+        <v>0.008697930437334295</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0263783406020702</v>
+        <v>0.02554955299879202</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>25</v>
@@ -4854,19 +4854,19 @@
         <v>27137</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>17910</v>
+        <v>16981</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>39519</v>
+        <v>38702</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01614402513661788</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01065448616117119</v>
+        <v>0.01010192784335425</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02350982487295522</v>
+        <v>0.02302408977430429</v>
       </c>
     </row>
     <row r="31">
@@ -4883,19 +4883,19 @@
         <v>246546</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>221546</v>
+        <v>221914</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>275584</v>
+        <v>273206</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3504054179822344</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3148740569706873</v>
+        <v>0.3153971764056946</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3916761321809875</v>
+        <v>0.3882957708331743</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>283</v>
@@ -4904,19 +4904,19 @@
         <v>303954</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>276617</v>
+        <v>276462</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>333756</v>
+        <v>335222</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3109995361485667</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2830291364865722</v>
+        <v>0.2828704876801755</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3414931199165714</v>
+        <v>0.3429925384612277</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>511</v>
@@ -4925,19 +4925,19 @@
         <v>550499</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>511291</v>
+        <v>510305</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>590595</v>
+        <v>591178</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3274938525827163</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3041685623053023</v>
+        <v>0.3035822406628909</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3513465513102827</v>
+        <v>0.3516933838304874</v>
       </c>
     </row>
     <row r="32">
@@ -4954,19 +4954,19 @@
         <v>438923</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>408154</v>
+        <v>413738</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>466028</v>
+        <v>465636</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6238232033582096</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5800919107055519</v>
+        <v>0.5880283322848162</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6623453606412495</v>
+        <v>0.6617883301685312</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>595</v>
@@ -4975,19 +4975,19 @@
         <v>642785</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>615217</v>
+        <v>613570</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>672711</v>
+        <v>673307</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6576854653129546</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6294785417194968</v>
+        <v>0.6277933876088678</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6883055222952402</v>
+        <v>0.6889147653127543</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1010</v>
@@ -4996,19 +4996,19 @@
         <v>1081708</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1041752</v>
+        <v>1039349</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1121500</v>
+        <v>1124818</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6435115694916352</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6197417166478018</v>
+        <v>0.618311737245701</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6671837256310273</v>
+        <v>0.6691577157588229</v>
       </c>
     </row>
     <row r="33">
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4946</v>
+        <v>4142</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00797127547899283</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04850465189928255</v>
+        <v>0.04062584980427918</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3651</v>
+        <v>4959</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003384170595220461</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01520046960387143</v>
+        <v>0.02064779488576986</v>
       </c>
     </row>
     <row r="5">
@@ -5416,19 +5416,19 @@
         <v>3248</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9194</v>
+        <v>8967</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02350076143918294</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00635559661674615</v>
+        <v>0.006266154826322578</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06652374171454323</v>
+        <v>0.06488026133726996</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -5437,19 +5437,19 @@
         <v>3248</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9707</v>
+        <v>8974</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01352361461526932</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003662792183159315</v>
+        <v>0.003643035301737692</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04041771508045418</v>
+        <v>0.03736451201984178</v>
       </c>
     </row>
     <row r="6">
@@ -5469,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6932</v>
+        <v>5094</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01000926644742129</v>
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06798598817934484</v>
+        <v>0.04996365360299831</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -5487,19 +5487,19 @@
         <v>3936</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1175</v>
+        <v>1162</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9123</v>
+        <v>9597</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02848080167376367</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00850147107183522</v>
+        <v>0.008410117455673534</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06601314307483301</v>
+        <v>0.06944433010846077</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -5508,19 +5508,19 @@
         <v>4957</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1700</v>
+        <v>1850</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10692</v>
+        <v>10909</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02063879112898884</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007079487492692122</v>
+        <v>0.007702644329125535</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0445176759601112</v>
+        <v>0.04542317490651816</v>
       </c>
     </row>
     <row r="7">
@@ -5537,19 +5537,19 @@
         <v>34198</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25216</v>
+        <v>24766</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44176</v>
+        <v>44241</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3354032083293702</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2473143589945491</v>
+        <v>0.2428940259525703</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4332617727175297</v>
+        <v>0.4338996553111178</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -5558,19 +5558,19 @@
         <v>45493</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34612</v>
+        <v>34736</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56499</v>
+        <v>57278</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3291722675230461</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2504405802720975</v>
+        <v>0.2513379769736253</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4088086963384134</v>
+        <v>0.4144445937462825</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -5579,19 +5579,19 @@
         <v>79691</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>65610</v>
+        <v>66315</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>94962</v>
+        <v>94975</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3318175865454399</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2731861148443256</v>
+        <v>0.2761228269834175</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3954012139926766</v>
+        <v>0.395457137980468</v>
       </c>
     </row>
     <row r="8">
@@ -5608,19 +5608,19 @@
         <v>65930</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>55687</v>
+        <v>55478</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>74769</v>
+        <v>74949</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6466162497442157</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5461581304063846</v>
+        <v>0.5441075621653368</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7333097680300095</v>
+        <v>0.7350798246256195</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>82</v>
@@ -5629,19 +5629,19 @@
         <v>85527</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>73705</v>
+        <v>73085</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>96860</v>
+        <v>95952</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6188461693640074</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5333094113766719</v>
+        <v>0.5288194850435085</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7008512165287453</v>
+        <v>0.6942799331138114</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>146</v>
@@ -5650,19 +5650,19 @@
         <v>151457</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>135404</v>
+        <v>136001</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>164803</v>
+        <v>165170</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6306358371150814</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5637938933377651</v>
+        <v>0.5662799478084799</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6862061352777583</v>
+        <v>0.687733180950949</v>
       </c>
     </row>
     <row r="9">
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4671</v>
+        <v>4856</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00557692854143265</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02722115786988233</v>
+        <v>0.02829945068322937</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4700</v>
+        <v>4838</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004465210245824299</v>
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0221824499321125</v>
+        <v>0.02283424863392909</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5807</v>
+        <v>6230</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004962669482615228</v>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0151429673944357</v>
+        <v>0.0162472368405918</v>
       </c>
     </row>
     <row r="11">
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7318</v>
+        <v>7484</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01231767223623296</v>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04264831664709907</v>
+        <v>0.04361773621796042</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -5846,19 +5846,19 @@
         <v>3808</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9555</v>
+        <v>10249</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01797424303853027</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004555153833476508</v>
+        <v>0.004567724925003358</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04509496790989947</v>
+        <v>0.04837111521736492</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -5867,19 +5867,19 @@
         <v>5922</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2811</v>
+        <v>2039</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12106</v>
+        <v>12080</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01544310416523786</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00732961360412485</v>
+        <v>0.005316281485072527</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03156938993018451</v>
+        <v>0.03150253307680386</v>
       </c>
     </row>
     <row r="12">
@@ -5896,19 +5896,19 @@
         <v>14349</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7385</v>
+        <v>7623</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>24522</v>
+        <v>24102</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08362451918918516</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04303764570673031</v>
+        <v>0.04442429578534835</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1429105536587213</v>
+        <v>0.1404643656583691</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -5917,19 +5917,19 @@
         <v>5571</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1953</v>
+        <v>1974</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12458</v>
+        <v>13830</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02629150733101866</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.00921653019916965</v>
+        <v>0.009315623263192917</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05879808197181428</v>
+        <v>0.06527576461934491</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -5938,19 +5938,19 @@
         <v>19920</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11822</v>
+        <v>11698</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>31009</v>
+        <v>31307</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0519462405800399</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03082882136751759</v>
+        <v>0.03050614750501756</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08086565226747358</v>
+        <v>0.08164286215908297</v>
       </c>
     </row>
     <row r="13">
@@ -5967,19 +5967,19 @@
         <v>49702</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37263</v>
+        <v>37963</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62532</v>
+        <v>63154</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.289654519512147</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2171606359967865</v>
+        <v>0.2212411170301996</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3644273860225554</v>
+        <v>0.3680540448850917</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -5988,19 +5988,19 @@
         <v>68492</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54638</v>
+        <v>55819</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84142</v>
+        <v>83686</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3232621744443676</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2578769104409954</v>
+        <v>0.2634483499715192</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3971251898896784</v>
+        <v>0.3949746645463979</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>110</v>
@@ -6009,19 +6009,19 @@
         <v>118194</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>99131</v>
+        <v>100902</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>136105</v>
+        <v>137434</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3082237978709509</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2585121529260731</v>
+        <v>0.2631313795668652</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3549325427823043</v>
+        <v>0.3583976876244785</v>
       </c>
     </row>
     <row r="14">
@@ -6038,19 +6038,19 @@
         <v>104469</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>90998</v>
+        <v>91035</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>117498</v>
+        <v>117304</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6088263605210023</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5303248586251312</v>
+        <v>0.5305357267520727</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6847574635103293</v>
+        <v>0.6836319993755242</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>121</v>
@@ -6059,19 +6059,19 @@
         <v>133060</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>116560</v>
+        <v>118128</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>147706</v>
+        <v>146107</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6280068649402591</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5501317105591614</v>
+        <v>0.5575290940913639</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.697133023133694</v>
+        <v>0.6895853052843163</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>216</v>
@@ -6080,19 +6080,19 @@
         <v>237529</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>218061</v>
+        <v>217393</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>258348</v>
+        <v>257567</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6194241879011561</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5686560095019495</v>
+        <v>0.5669154144663537</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6737152125036678</v>
+        <v>0.6716797625828111</v>
       </c>
     </row>
     <row r="15">
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5130</v>
+        <v>5821</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.008055276003862208</v>
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04065581766405018</v>
+        <v>0.04612848392835965</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -6252,19 +6252,19 @@
         <v>8584</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3840</v>
+        <v>4385</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15583</v>
+        <v>16279</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05599863365701943</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02505126340564254</v>
+        <v>0.02860657130239946</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.101663239192087</v>
+        <v>0.1061984771594582</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -6273,19 +6273,19 @@
         <v>9600</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4742</v>
+        <v>4488</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19459</v>
+        <v>17400</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03435110834888817</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01696591677066799</v>
+        <v>0.0160594837139518</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06962831140265387</v>
+        <v>0.06226055780074221</v>
       </c>
     </row>
     <row r="18">
@@ -6302,19 +6302,19 @@
         <v>6137</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2102</v>
+        <v>2925</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12409</v>
+        <v>12806</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04863542478951704</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01665928881669971</v>
+        <v>0.02317749237024494</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09833338840398467</v>
+        <v>0.1014844004000811</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -6323,19 +6323,19 @@
         <v>4552</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1084</v>
+        <v>1526</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11343</v>
+        <v>12107</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0296951651196514</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.007075051930056846</v>
+        <v>0.009958187999045841</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07400023081401387</v>
+        <v>0.07898099281050738</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>10</v>
@@ -6344,19 +6344,19 @@
         <v>10689</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5572</v>
+        <v>5115</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>20009</v>
+        <v>19587</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03824712665543244</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01993822397140917</v>
+        <v>0.01830146128087944</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07159517131828286</v>
+        <v>0.07008502368532218</v>
       </c>
     </row>
     <row r="19">
@@ -6373,19 +6373,19 @@
         <v>35403</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25446</v>
+        <v>26516</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>47451</v>
+        <v>47766</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2805520995224282</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2016505120936662</v>
+        <v>0.2101308465636714</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3760344964712598</v>
+        <v>0.3785244503853338</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>50</v>
@@ -6394,19 +6394,19 @@
         <v>53914</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40987</v>
+        <v>43551</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>65934</v>
+        <v>66599</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3517264841521637</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2673920241443571</v>
+        <v>0.2841162609932475</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.430139278475779</v>
+        <v>0.4344793579463759</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>81</v>
@@ -6415,19 +6415,19 @@
         <v>89317</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>74196</v>
+        <v>74151</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>108008</v>
+        <v>104866</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3195896174831809</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2654839955690834</v>
+        <v>0.2653233224145121</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3864708685610845</v>
+        <v>0.3752280703969573</v>
       </c>
     </row>
     <row r="20">
@@ -6444,19 +6444,19 @@
         <v>83633</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>71297</v>
+        <v>71619</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>94201</v>
+        <v>93530</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6627571996841926</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5649994151790895</v>
+        <v>0.5675513229318628</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7465045678930389</v>
+        <v>0.7411874193243267</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>81</v>
@@ -6465,19 +6465,19 @@
         <v>86235</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>74247</v>
+        <v>73825</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>98153</v>
+        <v>96911</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5625797170711655</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.48437435822484</v>
+        <v>0.4816201693933377</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6403278291393005</v>
+        <v>0.6322292654608997</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>158</v>
@@ -6486,19 +6486,19 @@
         <v>169867</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>151937</v>
+        <v>153112</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>186893</v>
+        <v>187209</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6078121475124985</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5436539997722513</v>
+        <v>0.5478592916788456</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6687345223028777</v>
+        <v>0.6698626178670271</v>
       </c>
     </row>
     <row r="21">
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6135</v>
+        <v>7358</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0121998962802334</v>
@@ -6602,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0404349817485533</v>
+        <v>0.04849225438580828</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -6614,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5259</v>
+        <v>6386</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005226894347812681</v>
@@ -6623,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02138261043107604</v>
+        <v>0.02596457418219366</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -6632,19 +6632,19 @@
         <v>3137</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8519</v>
+        <v>8534</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007887411454285691</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002261421924209698</v>
+        <v>0.00227458001543421</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02142301977850714</v>
+        <v>0.02145917188064393</v>
       </c>
     </row>
     <row r="23">
@@ -6661,19 +6661,19 @@
         <v>6954</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2874</v>
+        <v>2782</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14315</v>
+        <v>13507</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04583372018620539</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01894407728825065</v>
+        <v>0.01833369271857949</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09434400669512967</v>
+        <v>0.08902141964186087</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>10</v>
@@ -6682,19 +6682,19 @@
         <v>13151</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7092</v>
+        <v>5886</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>23869</v>
+        <v>21783</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05347143922530392</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02883482526399571</v>
+        <v>0.02393113781503555</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09705463279808413</v>
+        <v>0.08857019787733435</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>17</v>
@@ -6703,19 +6703,19 @@
         <v>20105</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>11893</v>
+        <v>12301</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>32065</v>
+        <v>31961</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05055730233635831</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02990801599977846</v>
+        <v>0.03093313609398336</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08063183077025231</v>
+        <v>0.08037175222582024</v>
       </c>
     </row>
     <row r="24">
@@ -6732,19 +6732,19 @@
         <v>4776</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1823</v>
+        <v>1754</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10567</v>
+        <v>11317</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03147926619168019</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01201184829118163</v>
+        <v>0.0115634406201308</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06964303652736217</v>
+        <v>0.07458424259300916</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -6753,19 +6753,19 @@
         <v>10141</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4916</v>
+        <v>5325</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17247</v>
+        <v>18217</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04123586647470891</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01998783207384749</v>
+        <v>0.02165124033108915</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07012716791473848</v>
+        <v>0.07407189537704408</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -6774,19 +6774,19 @@
         <v>14918</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8900</v>
+        <v>8835</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>24579</v>
+        <v>24073</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03751328010436411</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02238121442633849</v>
+        <v>0.0222177290838679</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06180719139717013</v>
+        <v>0.06053610587700651</v>
       </c>
     </row>
     <row r="25">
@@ -6803,19 +6803,19 @@
         <v>21680</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14198</v>
+        <v>13184</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>32256</v>
+        <v>30692</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1428879357922569</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09357787318241127</v>
+        <v>0.08689156450899976</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2125906460201819</v>
+        <v>0.2022821884131107</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -6824,19 +6824,19 @@
         <v>38218</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>28619</v>
+        <v>27921</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>51391</v>
+        <v>51576</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.155395112402026</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1163654745825344</v>
+        <v>0.1135306216308164</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2089604918061128</v>
+        <v>0.2097121794645663</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>58</v>
@@ -6845,19 +6845,19 @@
         <v>59898</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>47124</v>
+        <v>46946</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>75489</v>
+        <v>74729</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1506230561705117</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.11850036098341</v>
+        <v>0.1180526827268844</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1898290788278329</v>
+        <v>0.1879189941410072</v>
       </c>
     </row>
     <row r="26">
@@ -6874,19 +6874,19 @@
         <v>116466</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>104802</v>
+        <v>105259</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>125515</v>
+        <v>126151</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.767599181549624</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6907255539295275</v>
+        <v>0.6937355326769674</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8272357518397399</v>
+        <v>0.8314312667612331</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>166</v>
@@ -6895,19 +6895,19 @@
         <v>183143</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>168005</v>
+        <v>168423</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>196225</v>
+        <v>196736</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7446706875501484</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6831174513761207</v>
+        <v>0.6848202506872381</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7978639413395979</v>
+        <v>0.7999416463861678</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>278</v>
@@ -6916,19 +6916,19 @@
         <v>299609</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>281118</v>
+        <v>282637</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>315978</v>
+        <v>316907</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7534189499344802</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.70692036935085</v>
+        <v>0.7107393038667217</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7945810177492112</v>
+        <v>0.796917739611182</v>
       </c>
     </row>
     <row r="27">
@@ -7020,19 +7020,19 @@
         <v>3621</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>934</v>
+        <v>944</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8943</v>
+        <v>8909</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006565695977468221</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001692978084031859</v>
+        <v>0.001711785526025678</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01621671296148254</v>
+        <v>0.01615529083179545</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -7044,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7091</v>
+        <v>8830</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.002978188307501889</v>
@@ -7053,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.009463989240561238</v>
+        <v>0.01178413934318498</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -7062,19 +7062,19 @@
         <v>5852</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2576</v>
+        <v>2232</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12587</v>
+        <v>12687</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.004499125419936563</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001980521530913754</v>
+        <v>0.001716237606082064</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.009676650476950575</v>
+        <v>0.009753819959680795</v>
       </c>
     </row>
     <row r="29">
@@ -7091,19 +7091,19 @@
         <v>10084</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5329</v>
+        <v>4460</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>17321</v>
+        <v>17239</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01828632848954022</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.009662700608866972</v>
+        <v>0.008088145073686263</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03140860721579695</v>
+        <v>0.03126031619481918</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>25</v>
@@ -7112,19 +7112,19 @@
         <v>28791</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>19725</v>
+        <v>19656</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>43234</v>
+        <v>42080</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03842314931591422</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0263245751884736</v>
+        <v>0.02623172285155487</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05769906711831881</v>
+        <v>0.05615883337894778</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>35</v>
@@ -7133,19 +7133,19 @@
         <v>38875</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>26500</v>
+        <v>27715</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>53157</v>
+        <v>53836</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02988606983377694</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02037218060076634</v>
+        <v>0.0213068377143946</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04086545811234452</v>
+        <v>0.0413874356351127</v>
       </c>
     </row>
     <row r="30">
@@ -7162,19 +7162,19 @@
         <v>26283</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17527</v>
+        <v>17367</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>39280</v>
+        <v>40033</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04766043982082384</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03178292317364129</v>
+        <v>0.03149213085465896</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07122902791368681</v>
+        <v>0.07259434050587429</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>23</v>
@@ -7183,19 +7183,19 @@
         <v>24200</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>16181</v>
+        <v>15860</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>36446</v>
+        <v>36277</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03229665739171372</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02159412959454144</v>
+        <v>0.02116602006989185</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04863946248548355</v>
+        <v>0.04841476234355619</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>46</v>
@@ -7204,19 +7204,19 @@
         <v>50483</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>37874</v>
+        <v>37594</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>66404</v>
+        <v>66504</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03881018963568093</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02911683127853222</v>
+        <v>0.02890149271430267</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05104945554130856</v>
+        <v>0.05112683282206947</v>
       </c>
     </row>
     <row r="31">
@@ -7233,19 +7233,19 @@
         <v>140982</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>119648</v>
+        <v>118903</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>160745</v>
+        <v>161964</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2556496495535676</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2169628131188098</v>
+        <v>0.21561227689242</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.291485633377062</v>
+        <v>0.2936974915823153</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>197</v>
@@ -7254,19 +7254,19 @@
         <v>206117</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>182450</v>
+        <v>181009</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>232558</v>
+        <v>231203</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2750775337706813</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2434920605696484</v>
+        <v>0.2415696675966482</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3103651058034916</v>
+        <v>0.3085567887427577</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>329</v>
@@ -7275,19 +7275,19 @@
         <v>347099</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>313971</v>
+        <v>313595</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>380612</v>
+        <v>381737</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2668410105795909</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2413727323678632</v>
+        <v>0.241084033241306</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2926043650493434</v>
+        <v>0.2934697447963109</v>
       </c>
     </row>
     <row r="32">
@@ -7304,19 +7304,19 @@
         <v>370496</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>348424</v>
+        <v>347784</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>394473</v>
+        <v>392631</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6718378861586002</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6318129935085967</v>
+        <v>0.630651891702507</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7153150183123468</v>
+        <v>0.7119759100943996</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>450</v>
@@ -7325,19 +7325,19 @@
         <v>487966</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>459588</v>
+        <v>461005</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>514915</v>
+        <v>515024</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6512244712141889</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6133518993671226</v>
+        <v>0.6152433167882995</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6871897014600021</v>
+        <v>0.6873354789812673</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>798</v>
@@ -7346,19 +7346,19 @@
         <v>858462</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>821219</v>
+        <v>819133</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>893469</v>
+        <v>894052</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6599636045310147</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6313316612192578</v>
+        <v>0.6297282953280511</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6868762730855851</v>
+        <v>0.6873243946388683</v>
       </c>
     </row>
     <row r="33">
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5882</v>
+        <v>6262</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01176761754441996</v>
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03827658258735993</v>
+        <v>0.04074834795341893</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6233</v>
+        <v>6027</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006188949113720262</v>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02133006025445792</v>
+        <v>0.02062519918281798</v>
       </c>
     </row>
     <row r="5">
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6166</v>
+        <v>5867</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01248467859068071</v>
@@ -7765,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04450797693761128</v>
+        <v>0.04235342731145544</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -7774,19 +7774,19 @@
         <v>2310</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>682</v>
+        <v>628</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5878</v>
+        <v>5789</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01503272777450471</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004435622859227371</v>
+        <v>0.004083796858875601</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0382501185069273</v>
+        <v>0.03766640209658588</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -7795,19 +7795,19 @@
         <v>4040</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1679</v>
+        <v>1636</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8924</v>
+        <v>8598</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0138247754011367</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005745588880081869</v>
+        <v>0.005599505792900633</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03054014453675348</v>
+        <v>0.02942522096269513</v>
       </c>
     </row>
     <row r="6">
@@ -7824,19 +7824,19 @@
         <v>7522</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2240</v>
+        <v>2084</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22808</v>
+        <v>23581</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05429999802374179</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0161674780603251</v>
+        <v>0.01504232730106827</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1646406342108794</v>
+        <v>0.1702277898189694</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -7845,19 +7845,19 @@
         <v>2802</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>932</v>
+        <v>1042</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6994</v>
+        <v>7044</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01823468452899624</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006066345185935035</v>
+        <v>0.006778688757225288</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04551134416910563</v>
+        <v>0.0458344261954073</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -7866,19 +7866,19 @@
         <v>10325</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4470</v>
+        <v>4406</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>25968</v>
+        <v>25302</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03533214925173694</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01529785628566977</v>
+        <v>0.01507956779282221</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0888679660565402</v>
+        <v>0.08658800114731649</v>
       </c>
     </row>
     <row r="7">
@@ -7895,19 +7895,19 @@
         <v>29326</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20813</v>
+        <v>19706</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40337</v>
+        <v>39929</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.211693340912047</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1502460456482432</v>
+        <v>0.1422535126099648</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.291179277091577</v>
+        <v>0.2882330234625624</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -7916,19 +7916,19 @@
         <v>28943</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21610</v>
+        <v>21542</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38312</v>
+        <v>38232</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1883296411148853</v>
+        <v>0.1883296411148852</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1406105699756246</v>
+        <v>0.1401723377183402</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2492899251692099</v>
+        <v>0.2487671446151196</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>76</v>
@@ -7937,19 +7937,19 @@
         <v>58269</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46680</v>
+        <v>46758</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72254</v>
+        <v>72069</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.199405658328291</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.159746675731522</v>
+        <v>0.1600125168790913</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2472637510944028</v>
+        <v>0.246631420779331</v>
       </c>
     </row>
     <row r="8">
@@ -7966,19 +7966,19 @@
         <v>99952</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>86088</v>
+        <v>85002</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>110255</v>
+        <v>110428</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7215219824735306</v>
+        <v>0.7215219824735304</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6214409484562697</v>
+        <v>0.6136013403667306</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7958998318310562</v>
+        <v>0.7971490118230242</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>197</v>
@@ -7987,19 +7987,19 @@
         <v>117820</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>108464</v>
+        <v>108137</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>125661</v>
+        <v>125706</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7666353290371938</v>
+        <v>0.7666353290371937</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7057600185854463</v>
+        <v>0.7036347654686127</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8176595112394919</v>
+        <v>0.8179482707685292</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>305</v>
@@ -8008,19 +8008,19 @@
         <v>217771</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>201350</v>
+        <v>201551</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>231588</v>
+        <v>230649</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.745248467905115</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6890508742376649</v>
+        <v>0.6897392114289321</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7925318510690395</v>
+        <v>0.7893177975168365</v>
       </c>
     </row>
     <row r="9">
@@ -8112,19 +8112,19 @@
         <v>3038</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>867</v>
+        <v>843</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8957</v>
+        <v>8043</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01296321288066874</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003699826211028625</v>
+        <v>0.003597357192118104</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03821649225247114</v>
+        <v>0.03431608216628946</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4015</v>
+        <v>3954</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002809481099104204</v>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01539872969433819</v>
+        <v>0.015167242722575</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -8154,19 +8154,19 @@
         <v>3771</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1053</v>
+        <v>861</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8974</v>
+        <v>9672</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.007616243659189271</v>
+        <v>0.00761624365918927</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002127892939047395</v>
+        <v>0.001739268190668735</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01812756838924292</v>
+        <v>0.01953690628381366</v>
       </c>
     </row>
     <row r="11">
@@ -8183,19 +8183,19 @@
         <v>5903</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2118</v>
+        <v>2169</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13671</v>
+        <v>13291</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.02518565518742701</v>
+        <v>0.025185655187427</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009035444799794852</v>
+        <v>0.009254123464455623</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05833315935599905</v>
+        <v>0.05670982028264446</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -8204,19 +8204,19 @@
         <v>5421</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2685</v>
+        <v>2680</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10107</v>
+        <v>10441</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02079264604401239</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01030057665718126</v>
+        <v>0.01028009999928489</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03876857972984812</v>
+        <v>0.04004932442769617</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>13</v>
@@ -8225,19 +8225,19 @@
         <v>11323</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6300</v>
+        <v>6376</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19819</v>
+        <v>19661</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02287229048715357</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01272629332891011</v>
+        <v>0.01287799278005034</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04003233771040628</v>
+        <v>0.03971277728704776</v>
       </c>
     </row>
     <row r="12">
@@ -8254,19 +8254,19 @@
         <v>4296</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1447</v>
+        <v>1493</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9375</v>
+        <v>9124</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01833188343680102</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.006174457183240654</v>
+        <v>0.006368335987771047</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04000225367239687</v>
+        <v>0.03893007374719824</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -8275,19 +8275,19 @@
         <v>8505</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4363</v>
+        <v>4393</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17130</v>
+        <v>15926</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03262176078368049</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01673492551682283</v>
+        <v>0.01684924741672063</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06570498026815608</v>
+        <v>0.06108730800213259</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>15</v>
@@ -8296,19 +8296,19 @@
         <v>12801</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7648</v>
+        <v>7405</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>22385</v>
+        <v>21257</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02585695264251013</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01544831051866284</v>
+        <v>0.01495739385190587</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0452162092065187</v>
+        <v>0.04293716737885229</v>
       </c>
     </row>
     <row r="13">
@@ -8325,19 +8325,19 @@
         <v>60763</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46698</v>
+        <v>46584</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>79236</v>
+        <v>79318</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2592628579781208</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1992521431177045</v>
+        <v>0.1987672205653961</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3380840654472054</v>
+        <v>0.3384346319886304</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>96</v>
@@ -8346,19 +8346,19 @@
         <v>65226</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>53117</v>
+        <v>53460</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77723</v>
+        <v>77937</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2501907188715076</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2037440312729691</v>
+        <v>0.2050587654167018</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2981261092867263</v>
+        <v>0.2989440709886839</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>141</v>
@@ -8367,19 +8367,19 @@
         <v>125989</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>106917</v>
+        <v>107584</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>149262</v>
+        <v>149388</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2544854569575311</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2159612809897998</v>
+        <v>0.2173100554932906</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.301495698065015</v>
+        <v>0.3017490861469108</v>
       </c>
     </row>
     <row r="14">
@@ -8396,19 +8396,19 @@
         <v>160367</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>142965</v>
+        <v>142595</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>176104</v>
+        <v>176786</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6842563905169825</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6100047886226134</v>
+        <v>0.6084257803702988</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7514043461401947</v>
+        <v>0.7543142655914253</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>252</v>
@@ -8417,19 +8417,19 @@
         <v>180822</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>166655</v>
+        <v>167426</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>193275</v>
+        <v>193566</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6935853932016952</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6392459450233502</v>
+        <v>0.6422011623337429</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7413533104540994</v>
+        <v>0.7424683592096162</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>401</v>
@@ -8438,19 +8438,19 @@
         <v>341189</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>317386</v>
+        <v>319804</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>362059</v>
+        <v>362246</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6891690562536158</v>
+        <v>0.6891690562536159</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6410884582675789</v>
+        <v>0.6459738742220957</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7313240202138179</v>
+        <v>0.7317024274102027</v>
       </c>
     </row>
     <row r="15">
@@ -8558,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5059</v>
+        <v>5366</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006566154987771114</v>
@@ -8567,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02321073520024567</v>
+        <v>0.02461680772573367</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -8579,16 +8579,16 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4670</v>
+        <v>5014</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.003860160497011533</v>
+        <v>0.003860160497011532</v>
       </c>
       <c r="V16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01259657211169753</v>
+        <v>0.01352436753115984</v>
       </c>
     </row>
     <row r="17">
@@ -8605,19 +8605,19 @@
         <v>6286</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2498</v>
+        <v>2749</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11751</v>
+        <v>14263</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04114034739165046</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01634692075951203</v>
+        <v>0.01799346470946026</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07690543738923496</v>
+        <v>0.09334548941806922</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -8626,19 +8626,19 @@
         <v>10399</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5653</v>
+        <v>6158</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18089</v>
+        <v>18611</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.04770694339680614</v>
+        <v>0.04770694339680613</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02593429589125313</v>
+        <v>0.02825044493621522</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08298886668829904</v>
+        <v>0.08538295578229239</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -8647,19 +8647,19 @@
         <v>16685</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10133</v>
+        <v>10504</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25303</v>
+        <v>25546</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04500076715727347</v>
+        <v>0.04500076715727346</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02732950283975465</v>
+        <v>0.0283314121365911</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06824380470844586</v>
+        <v>0.0688987373211663</v>
       </c>
     </row>
     <row r="18">
@@ -8676,19 +8676,19 @@
         <v>8570</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3959</v>
+        <v>3639</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16306</v>
+        <v>17813</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0560876610629294</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02591232599453905</v>
+        <v>0.02381551843838511</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1067184191271174</v>
+        <v>0.1165769716630684</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -8697,19 +8697,19 @@
         <v>13046</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7469</v>
+        <v>7258</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23716</v>
+        <v>22207</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05985298688817484</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03426412273395436</v>
+        <v>0.03329900275814542</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1088049873514643</v>
+        <v>0.1018828189742036</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>21</v>
@@ -8718,19 +8718,19 @@
         <v>21616</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13782</v>
+        <v>13726</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>33894</v>
+        <v>32617</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05830124908149727</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03717063277008902</v>
+        <v>0.03701884930486515</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09141422600209125</v>
+        <v>0.08796997339830749</v>
       </c>
     </row>
     <row r="19">
@@ -8747,19 +8747,19 @@
         <v>25648</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17430</v>
+        <v>17893</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37576</v>
+        <v>37035</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1678559577109646</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1140743614511091</v>
+        <v>0.1171002903382755</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2459185216708574</v>
+        <v>0.2423780015488855</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>58</v>
@@ -8768,19 +8768,19 @@
         <v>44783</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34488</v>
+        <v>33843</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>56502</v>
+        <v>57658</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2054530452101919</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1582227699847575</v>
+        <v>0.1552649706142065</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2592163039271442</v>
+        <v>0.2645222174761345</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>82</v>
@@ -8789,19 +8789,19 @@
         <v>70431</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>57699</v>
+        <v>56796</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>86745</v>
+        <v>85445</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.189958815812471</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1556185762179943</v>
+        <v>0.1531838583777315</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2339592548344872</v>
+        <v>0.2304534834776735</v>
       </c>
     </row>
     <row r="20">
@@ -8818,19 +8818,19 @@
         <v>112294</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>99443</v>
+        <v>100721</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>122667</v>
+        <v>123160</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7349160338344555</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.650810057242313</v>
+        <v>0.6591733721458696</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8028007533078054</v>
+        <v>0.8060288560100718</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>192</v>
@@ -8839,19 +8839,19 @@
         <v>148312</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>133309</v>
+        <v>134085</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>161239</v>
+        <v>161435</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6804208695170559</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6115919769834662</v>
+        <v>0.615148446534899</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.739727833946811</v>
+        <v>0.7406245125711989</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>288</v>
@@ -8860,19 +8860,19 @@
         <v>260607</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>240636</v>
+        <v>243753</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>276514</v>
+        <v>277727</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7028790074517468</v>
+        <v>0.7028790074517467</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.649015686934006</v>
+        <v>0.6574220660072023</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7457814498579837</v>
+        <v>0.7490532712832554</v>
       </c>
     </row>
     <row r="21">
@@ -8964,19 +8964,19 @@
         <v>2654</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>799</v>
+        <v>844</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7138</v>
+        <v>7231</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01283753504884613</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003865306539709237</v>
+        <v>0.004081252210992378</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03452287456892326</v>
+        <v>0.03497016868652138</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -8998,19 +8998,19 @@
         <v>2654</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7539</v>
+        <v>7466</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005213492959964238</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001560840311988574</v>
+        <v>0.001595774112422606</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01480764339800632</v>
+        <v>0.0146639373806589</v>
       </c>
     </row>
     <row r="23">
@@ -9027,19 +9027,19 @@
         <v>6546</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3082</v>
+        <v>3012</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12311</v>
+        <v>12684</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03166030108833003</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01490356236807488</v>
+        <v>0.01456853984935308</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05953962157581813</v>
+        <v>0.06134691197961352</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>19</v>
@@ -9048,19 +9048,19 @@
         <v>14627</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9291</v>
+        <v>9058</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>24089</v>
+        <v>23803</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04837432164555703</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03072804546813552</v>
+        <v>0.02995752321266842</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0796678951481099</v>
+        <v>0.07872235751638128</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>27</v>
@@ -9069,19 +9069,19 @@
         <v>21173</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>14612</v>
+        <v>14162</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>31211</v>
+        <v>30986</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04158653659365699</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02870056961928127</v>
+        <v>0.02781553015701206</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06130274848526904</v>
+        <v>0.06086052368882389</v>
       </c>
     </row>
     <row r="24">
@@ -9098,19 +9098,19 @@
         <v>16979</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9642</v>
+        <v>9896</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26215</v>
+        <v>27530</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08211847612647802</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04663467433614291</v>
+        <v>0.04786307720280427</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1267855682977246</v>
+        <v>0.1331465787314466</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>21</v>
@@ -9119,19 +9119,19 @@
         <v>16544</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>10632</v>
+        <v>10620</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>25130</v>
+        <v>24311</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.05471347619765493</v>
+        <v>0.05471347619765492</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03516109266839353</v>
+        <v>0.03512140419900293</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0831096414581371</v>
+        <v>0.08040134057416824</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>37</v>
@@ -9140,19 +9140,19 @@
         <v>33523</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>23482</v>
+        <v>23253</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>44872</v>
+        <v>46150</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06584300952730933</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04612106800721268</v>
+        <v>0.04567222623782947</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08813314180375334</v>
+        <v>0.09064349656965155</v>
       </c>
     </row>
     <row r="25">
@@ -9169,19 +9169,19 @@
         <v>22125</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14283</v>
+        <v>14046</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33000</v>
+        <v>33586</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1070056046642828</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06907700366380112</v>
+        <v>0.06793374785377422</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1596021350343607</v>
+        <v>0.1624338255507051</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>56</v>
@@ -9190,19 +9190,19 @@
         <v>42443</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32396</v>
+        <v>33254</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>55599</v>
+        <v>54106</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.140367860312954</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1071405640552893</v>
+        <v>0.1099795364415767</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1838784401524446</v>
+        <v>0.1789423156191362</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>77</v>
@@ -9211,19 +9211,19 @@
         <v>64568</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>51332</v>
+        <v>50205</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>80656</v>
+        <v>81656</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1268190065578471</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.100821599577201</v>
+        <v>0.09860746730343396</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1584180668176895</v>
+        <v>0.1603816927312843</v>
       </c>
     </row>
     <row r="26">
@@ -9240,19 +9240,19 @@
         <v>158461</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>145071</v>
+        <v>145848</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>170023</v>
+        <v>169896</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.766378083072063</v>
+        <v>0.7663780830720629</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7016185919170258</v>
+        <v>0.7053791785206447</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8222983506162252</v>
+        <v>0.8216806977813575</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>319</v>
@@ -9261,19 +9261,19 @@
         <v>228755</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>214530</v>
+        <v>214640</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>240858</v>
+        <v>240959</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7565443418438343</v>
+        <v>0.7565443418438342</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7095009298479312</v>
+        <v>0.709863647869947</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.796571724017471</v>
+        <v>0.7969067951206509</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>478</v>
@@ -9282,19 +9282,19 @@
         <v>387216</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>368369</v>
+        <v>368816</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>404161</v>
+        <v>406083</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7605379543612223</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7235183325806245</v>
+        <v>0.724397065195923</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7938195447554748</v>
+        <v>0.7975931308464562</v>
       </c>
     </row>
     <row r="27">
@@ -9386,19 +9386,19 @@
         <v>5693</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2036</v>
+        <v>2466</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>12188</v>
+        <v>12957</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.007771761285400408</v>
+        <v>0.00777176128540041</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00278006815684328</v>
+        <v>0.003367041748615359</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01663973293984035</v>
+        <v>0.01768989025752762</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -9407,19 +9407,19 @@
         <v>3972</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8335</v>
+        <v>9483</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.004249543550768506</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001463790949139377</v>
+        <v>0.001466018976028565</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.008916799091025312</v>
+        <v>0.01014562102925387</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>11</v>
@@ -9428,19 +9428,19 @@
         <v>9665</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5043</v>
+        <v>5185</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>16731</v>
+        <v>17147</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.005796990122004905</v>
+        <v>0.005796990122004908</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003024933172537894</v>
+        <v>0.003110313939857342</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01003547665567733</v>
+        <v>0.01028516898389262</v>
       </c>
     </row>
     <row r="29">
@@ -9457,19 +9457,19 @@
         <v>20465</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13015</v>
+        <v>13242</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>31092</v>
+        <v>30240</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.02793958432198781</v>
+        <v>0.02793958432198782</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01776820402450026</v>
+        <v>0.01807827332864075</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0424492251806837</v>
+        <v>0.04128585951051979</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>44</v>
@@ -9478,19 +9478,19 @@
         <v>32757</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>24157</v>
+        <v>23319</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>44903</v>
+        <v>43927</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.03504400902483659</v>
+        <v>0.03504400902483658</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02584419345367089</v>
+        <v>0.02494748507697885</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04803824421642496</v>
+        <v>0.04699465169481977</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>65</v>
@@ -9499,19 +9499,19 @@
         <v>53221</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>41285</v>
+        <v>42300</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>68643</v>
+        <v>68893</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.03192276029028627</v>
+        <v>0.03192276029028628</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02476319537578903</v>
+        <v>0.02537174923568404</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04117290984972306</v>
+        <v>0.04132299776544587</v>
       </c>
     </row>
     <row r="30">
@@ -9528,19 +9528,19 @@
         <v>37368</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>25625</v>
+        <v>25367</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>53120</v>
+        <v>53689</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.05101702511697972</v>
+        <v>0.05101702511697973</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03498453279728021</v>
+        <v>0.03463228042736932</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07252293928607582</v>
+        <v>0.073299607022628</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>50</v>
@@ -9549,19 +9549,19 @@
         <v>40897</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>30402</v>
+        <v>29126</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>54933</v>
+        <v>52902</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0437526891513238</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03252532672299072</v>
+        <v>0.03115960225868934</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05876922781594239</v>
+        <v>0.056595693866378</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>83</v>
@@ -9570,19 +9570,19 @@
         <v>78265</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>61344</v>
+        <v>61701</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>98603</v>
+        <v>98723</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.0469441930926718</v>
+        <v>0.04694419309267181</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03679463492445347</v>
+        <v>0.03700886083079005</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05914337841676624</v>
+        <v>0.05921517296826976</v>
       </c>
     </row>
     <row r="31">
@@ -9599,19 +9599,19 @@
         <v>137862</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>115584</v>
+        <v>114621</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>165028</v>
+        <v>165166</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1882170146425349</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1578026045127987</v>
+        <v>0.1564870775914728</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2253063120715122</v>
+        <v>0.2254941002779375</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>254</v>
@@ -9620,19 +9620,19 @@
         <v>181395</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>159365</v>
+        <v>160222</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>201787</v>
+        <v>203989</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1940616113314414</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1704934141072758</v>
+        <v>0.1714097276002664</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2158774588133012</v>
+        <v>0.2182334084012582</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>376</v>
@@ -9641,19 +9641,19 @@
         <v>319257</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>288659</v>
+        <v>286364</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>349329</v>
+        <v>350602</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1914938538025466</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1731408680041241</v>
+        <v>0.1717641830916523</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2095313469653816</v>
+        <v>0.2102953156288654</v>
       </c>
     </row>
     <row r="32">
@@ -9670,19 +9670,19 @@
         <v>531074</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>503357</v>
+        <v>498285</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>559216</v>
+        <v>557972</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7250546146330968</v>
+        <v>0.7250546146330969</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.687213668316204</v>
+        <v>0.6802889183963865</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7634755428324637</v>
+        <v>0.7617774183179957</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>960</v>
@@ -9691,19 +9691,19 @@
         <v>675708</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>651652</v>
+        <v>649965</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>700344</v>
+        <v>702975</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7228921469416296</v>
+        <v>0.7228921469416297</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6971563412483802</v>
+        <v>0.6953507815192925</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7492485123174559</v>
+        <v>0.7520632241369954</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1472</v>
@@ -9712,19 +9712,19 @@
         <v>1206783</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1170740</v>
+        <v>1171718</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1243044</v>
+        <v>1244095</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7238422026924903</v>
+        <v>0.7238422026924906</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7022231109255087</v>
+        <v>0.7028098741291373</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7455919838370642</v>
+        <v>0.7462223346773917</v>
       </c>
     </row>
     <row r="33">
